--- a/Charger/BCU_pinout.xlsx
+++ b/Charger/BCU_pinout.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\BoatCharger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\Projekte\BoatBox\Charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -393,7 +393,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -799,10 +799,10 @@
   <dimension ref="D17:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
@@ -918,8 +918,8 @@
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
-      <c r="E22" s="15" t="s">
-        <v>46</v>
+      <c r="E22" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>25</v>
@@ -986,8 +986,8 @@
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
-      <c r="E25" s="14" t="s">
-        <v>24</v>
+      <c r="E25" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>40</v>

--- a/Charger/BCU_pinout.xlsx
+++ b/Charger/BCU_pinout.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -460,8 +460,8 @@
       <xdr:rowOff>137291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>78922</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466397</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>96891</xdr:rowOff>
     </xdr:to>
@@ -475,7 +475,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2974756" y="2436429"/>
-          <a:ext cx="1715580" cy="288048"/>
+          <a:ext cx="539641" cy="288048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -799,7 +799,7 @@
   <dimension ref="D17:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -850,26 +850,26 @@
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="H19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="L19" s="13" t="s">
         <v>44</v>
@@ -921,23 +921,23 @@
       <c r="E22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="F22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>35</v>
+      <c r="H22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="L22" s="17" t="s">
         <v>36</v>
@@ -989,23 +989,23 @@
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="10" t="s">
+      <c r="F25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>39</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="L25" s="16" t="s">
         <v>45</v>

--- a/Charger/BCU_pinout.xlsx
+++ b/Charger/BCU_pinout.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\Projekte\BoatBox\Charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976DFE79-5FEF-42B6-AE16-6CB8F495E05F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>A1</t>
   </si>
@@ -168,12 +169,15 @@
   </si>
   <si>
     <t>E_S_RLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -393,8 +397,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,7 +430,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 2"/>
+        <xdr:cNvPr id="6" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -467,7 +477,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Text Box 4"/>
+        <xdr:cNvPr id="7" name="Text Box 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -795,14 +811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D17:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D17:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
@@ -921,23 +937,23 @@
       <c r="E22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="I22" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>40</v>
+      <c r="K22" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="L22" s="17" t="s">
         <v>36</v>
@@ -989,11 +1005,11 @@
       <c r="E25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>28</v>
@@ -1024,6 +1040,11 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
